--- a/typicality_ratings/stimuli_typicality.xlsx
+++ b/typicality_ratings/stimuli_typicality.xlsx
@@ -957,9 +957,6 @@
     <t>koffiezetapparaat</t>
   </si>
   <si>
-    <t>schaatsen</t>
-  </si>
-  <si>
     <t>voetbalschoenen</t>
   </si>
   <si>
@@ -1255,6 +1252,9 @@
   </si>
   <si>
     <t>lifebuoy</t>
+  </si>
+  <si>
+    <t>schaats</t>
   </si>
 </sst>
 </file>
@@ -1579,8 +1579,8 @@
   <dimension ref="A1:H261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H58" sqref="H58"/>
+      <pane ySplit="1" topLeftCell="A163" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C181" sqref="C181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1607,16 +1607,16 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>363</v>
+      </c>
+      <c r="F1" t="s">
+        <v>368</v>
+      </c>
+      <c r="G1" t="s">
         <v>364</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>369</v>
-      </c>
-      <c r="G1" t="s">
-        <v>365</v>
-      </c>
-      <c r="H1" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1633,7 +1633,7 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G2" t="str">
         <f>IF(E2="sing", "is this","are these")</f>
@@ -1657,7 +1657,7 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3:G66" si="0">IF(E3="sing", "is this","are these")</f>
@@ -1681,7 +1681,7 @@
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
@@ -1705,7 +1705,7 @@
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
@@ -1729,7 +1729,7 @@
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
@@ -1753,7 +1753,7 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
@@ -1777,7 +1777,7 @@
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
@@ -1801,7 +1801,7 @@
         <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
@@ -1825,7 +1825,7 @@
         <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
@@ -1849,7 +1849,7 @@
         <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
@@ -1873,7 +1873,7 @@
         <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="0"/>
@@ -1897,7 +1897,7 @@
         <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" si="0"/>
@@ -1921,7 +1921,7 @@
         <v>6</v>
       </c>
       <c r="E14" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
@@ -1945,7 +1945,7 @@
         <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
@@ -1969,7 +1969,7 @@
         <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" si="0"/>
@@ -1993,7 +1993,7 @@
         <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
@@ -2017,7 +2017,7 @@
         <v>6</v>
       </c>
       <c r="E18" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" si="0"/>
@@ -2041,7 +2041,7 @@
         <v>6</v>
       </c>
       <c r="E19" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G19" t="str">
         <f t="shared" si="0"/>
@@ -2065,7 +2065,7 @@
         <v>6</v>
       </c>
       <c r="E20" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G20" t="str">
         <f t="shared" si="0"/>
@@ -2089,7 +2089,7 @@
         <v>6</v>
       </c>
       <c r="E21" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G21" t="str">
         <f t="shared" si="0"/>
@@ -2113,7 +2113,7 @@
         <v>6</v>
       </c>
       <c r="E22" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G22" t="str">
         <f t="shared" si="0"/>
@@ -2137,7 +2137,7 @@
         <v>6</v>
       </c>
       <c r="E23" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G23" t="str">
         <f t="shared" si="0"/>
@@ -2161,7 +2161,7 @@
         <v>6</v>
       </c>
       <c r="E24" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G24" t="str">
         <f t="shared" si="0"/>
@@ -2185,7 +2185,7 @@
         <v>6</v>
       </c>
       <c r="E25" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G25" t="str">
         <f t="shared" si="0"/>
@@ -2209,7 +2209,7 @@
         <v>6</v>
       </c>
       <c r="E26" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G26" t="str">
         <f t="shared" si="0"/>
@@ -2233,7 +2233,7 @@
         <v>6</v>
       </c>
       <c r="E27" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G27" t="str">
         <f t="shared" si="0"/>
@@ -2257,7 +2257,7 @@
         <v>6</v>
       </c>
       <c r="E28" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G28" t="str">
         <f t="shared" si="0"/>
@@ -2281,7 +2281,7 @@
         <v>6</v>
       </c>
       <c r="E29" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G29" t="str">
         <f t="shared" si="0"/>
@@ -2305,7 +2305,7 @@
         <v>6</v>
       </c>
       <c r="E30" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G30" t="str">
         <f t="shared" si="0"/>
@@ -2329,7 +2329,7 @@
         <v>6</v>
       </c>
       <c r="E31" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G31" t="str">
         <f t="shared" si="0"/>
@@ -2353,7 +2353,7 @@
         <v>6</v>
       </c>
       <c r="E32" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G32" t="str">
         <f t="shared" si="0"/>
@@ -2377,7 +2377,7 @@
         <v>6</v>
       </c>
       <c r="E33" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G33" t="str">
         <f t="shared" si="0"/>
@@ -2401,7 +2401,7 @@
         <v>6</v>
       </c>
       <c r="E34" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G34" t="str">
         <f t="shared" si="0"/>
@@ -2425,7 +2425,7 @@
         <v>6</v>
       </c>
       <c r="E35" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G35" t="str">
         <f t="shared" si="0"/>
@@ -2449,7 +2449,7 @@
         <v>6</v>
       </c>
       <c r="E36" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G36" t="str">
         <f t="shared" si="0"/>
@@ -2473,7 +2473,7 @@
         <v>6</v>
       </c>
       <c r="E37" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G37" t="str">
         <f t="shared" si="0"/>
@@ -2497,7 +2497,7 @@
         <v>6</v>
       </c>
       <c r="E38" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G38" t="str">
         <f t="shared" si="0"/>
@@ -2521,7 +2521,7 @@
         <v>6</v>
       </c>
       <c r="E39" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G39" t="str">
         <f t="shared" si="0"/>
@@ -2545,7 +2545,7 @@
         <v>6</v>
       </c>
       <c r="E40" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G40" t="str">
         <f t="shared" si="0"/>
@@ -2569,7 +2569,7 @@
         <v>6</v>
       </c>
       <c r="E41" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G41" t="str">
         <f t="shared" si="0"/>
@@ -2593,7 +2593,7 @@
         <v>6</v>
       </c>
       <c r="E42" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G42" t="str">
         <f t="shared" si="0"/>
@@ -2617,7 +2617,7 @@
         <v>6</v>
       </c>
       <c r="E43" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G43" t="str">
         <f t="shared" si="0"/>
@@ -2641,7 +2641,7 @@
         <v>6</v>
       </c>
       <c r="E44" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G44" t="str">
         <f t="shared" si="0"/>
@@ -2665,7 +2665,7 @@
         <v>6</v>
       </c>
       <c r="E45" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G45" t="str">
         <f t="shared" si="0"/>
@@ -2689,7 +2689,7 @@
         <v>6</v>
       </c>
       <c r="E46" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G46" t="str">
         <f t="shared" si="0"/>
@@ -2713,7 +2713,7 @@
         <v>6</v>
       </c>
       <c r="E47" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G47" t="str">
         <f t="shared" si="0"/>
@@ -2737,7 +2737,7 @@
         <v>6</v>
       </c>
       <c r="E48" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G48" t="str">
         <f t="shared" si="0"/>
@@ -2761,7 +2761,7 @@
         <v>6</v>
       </c>
       <c r="E49" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G49" t="str">
         <f t="shared" si="0"/>
@@ -2785,7 +2785,7 @@
         <v>6</v>
       </c>
       <c r="E50" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G50" t="str">
         <f t="shared" si="0"/>
@@ -2809,7 +2809,7 @@
         <v>6</v>
       </c>
       <c r="E51" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G51" t="str">
         <f t="shared" si="0"/>
@@ -2833,7 +2833,7 @@
         <v>6</v>
       </c>
       <c r="E52" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G52" t="str">
         <f t="shared" si="0"/>
@@ -2857,7 +2857,7 @@
         <v>6</v>
       </c>
       <c r="E53" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G53" t="str">
         <f t="shared" si="0"/>
@@ -2881,7 +2881,7 @@
         <v>6</v>
       </c>
       <c r="E54" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G54" t="str">
         <f t="shared" si="0"/>
@@ -2905,7 +2905,7 @@
         <v>6</v>
       </c>
       <c r="E55" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G55" t="str">
         <f t="shared" si="0"/>
@@ -2929,7 +2929,7 @@
         <v>6</v>
       </c>
       <c r="E56" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G56" t="str">
         <f t="shared" si="0"/>
@@ -2953,7 +2953,7 @@
         <v>6</v>
       </c>
       <c r="E57" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G57" t="str">
         <f t="shared" si="0"/>
@@ -2977,14 +2977,14 @@
         <v>6</v>
       </c>
       <c r="E58" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G58" t="str">
         <f t="shared" si="0"/>
         <v>is this</v>
       </c>
       <c r="H58" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -3001,7 +3001,7 @@
         <v>6</v>
       </c>
       <c r="E59" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G59" t="str">
         <f t="shared" si="0"/>
@@ -3025,7 +3025,7 @@
         <v>6</v>
       </c>
       <c r="E60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G60" t="str">
         <f t="shared" si="0"/>
@@ -3049,7 +3049,7 @@
         <v>6</v>
       </c>
       <c r="E61" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G61" t="str">
         <f t="shared" si="0"/>
@@ -3073,7 +3073,7 @@
         <v>6</v>
       </c>
       <c r="E62" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G62" t="str">
         <f t="shared" si="0"/>
@@ -3097,7 +3097,7 @@
         <v>6</v>
       </c>
       <c r="E63" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G63" t="str">
         <f t="shared" si="0"/>
@@ -3121,7 +3121,7 @@
         <v>6</v>
       </c>
       <c r="E64" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G64" t="str">
         <f t="shared" si="0"/>
@@ -3145,7 +3145,7 @@
         <v>6</v>
       </c>
       <c r="E65" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G65" t="str">
         <f t="shared" si="0"/>
@@ -3169,7 +3169,7 @@
         <v>6</v>
       </c>
       <c r="E66" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G66" t="str">
         <f t="shared" si="0"/>
@@ -3193,7 +3193,7 @@
         <v>6</v>
       </c>
       <c r="E67" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G67" t="str">
         <f t="shared" ref="G67:G130" si="1">IF(E67="sing", "is this","are these")</f>
@@ -3217,7 +3217,7 @@
         <v>6</v>
       </c>
       <c r="E68" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G68" t="str">
         <f t="shared" si="1"/>
@@ -3241,7 +3241,7 @@
         <v>6</v>
       </c>
       <c r="E69" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G69" t="str">
         <f t="shared" si="1"/>
@@ -3265,7 +3265,7 @@
         <v>6</v>
       </c>
       <c r="E70" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G70" t="str">
         <f t="shared" si="1"/>
@@ -3289,7 +3289,7 @@
         <v>6</v>
       </c>
       <c r="E71" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G71" t="str">
         <f t="shared" si="1"/>
@@ -3313,7 +3313,7 @@
         <v>6</v>
       </c>
       <c r="E72" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G72" t="str">
         <f t="shared" si="1"/>
@@ -3337,7 +3337,7 @@
         <v>6</v>
       </c>
       <c r="E73" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G73" t="str">
         <f t="shared" si="1"/>
@@ -3361,7 +3361,7 @@
         <v>6</v>
       </c>
       <c r="E74" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G74" t="str">
         <f t="shared" si="1"/>
@@ -3385,7 +3385,7 @@
         <v>6</v>
       </c>
       <c r="E75" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G75" t="str">
         <f t="shared" si="1"/>
@@ -3409,7 +3409,7 @@
         <v>6</v>
       </c>
       <c r="E76" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G76" t="str">
         <f t="shared" si="1"/>
@@ -3433,7 +3433,7 @@
         <v>6</v>
       </c>
       <c r="E77" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G77" t="str">
         <f t="shared" si="1"/>
@@ -3457,7 +3457,7 @@
         <v>6</v>
       </c>
       <c r="E78" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G78" t="str">
         <f t="shared" si="1"/>
@@ -3481,7 +3481,7 @@
         <v>6</v>
       </c>
       <c r="E79" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G79" t="str">
         <f t="shared" si="1"/>
@@ -3505,7 +3505,7 @@
         <v>6</v>
       </c>
       <c r="E80" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G80" t="str">
         <f t="shared" si="1"/>
@@ -3529,7 +3529,7 @@
         <v>6</v>
       </c>
       <c r="E81" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G81" t="str">
         <f t="shared" si="1"/>
@@ -3553,7 +3553,7 @@
         <v>6</v>
       </c>
       <c r="E82" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G82" t="str">
         <f t="shared" si="1"/>
@@ -3577,7 +3577,7 @@
         <v>6</v>
       </c>
       <c r="E83" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G83" t="str">
         <f t="shared" si="1"/>
@@ -3601,7 +3601,7 @@
         <v>6</v>
       </c>
       <c r="E84" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G84" t="str">
         <f t="shared" si="1"/>
@@ -3625,7 +3625,7 @@
         <v>6</v>
       </c>
       <c r="E85" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G85" t="str">
         <f t="shared" si="1"/>
@@ -3649,7 +3649,7 @@
         <v>6</v>
       </c>
       <c r="E86" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G86" t="str">
         <f t="shared" si="1"/>
@@ -3673,7 +3673,7 @@
         <v>6</v>
       </c>
       <c r="E87" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G87" t="str">
         <f t="shared" si="1"/>
@@ -3697,7 +3697,7 @@
         <v>6</v>
       </c>
       <c r="E88" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G88" t="str">
         <f t="shared" si="1"/>
@@ -3721,7 +3721,7 @@
         <v>6</v>
       </c>
       <c r="E89" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G89" t="str">
         <f t="shared" si="1"/>
@@ -3745,7 +3745,7 @@
         <v>6</v>
       </c>
       <c r="E90" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G90" t="str">
         <f t="shared" si="1"/>
@@ -3769,7 +3769,7 @@
         <v>6</v>
       </c>
       <c r="E91" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G91" t="str">
         <f t="shared" si="1"/>
@@ -3793,7 +3793,7 @@
         <v>6</v>
       </c>
       <c r="E92" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G92" t="str">
         <f t="shared" si="1"/>
@@ -3817,7 +3817,7 @@
         <v>6</v>
       </c>
       <c r="E93" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G93" t="str">
         <f t="shared" si="1"/>
@@ -3841,7 +3841,7 @@
         <v>6</v>
       </c>
       <c r="E94" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G94" t="str">
         <f t="shared" si="1"/>
@@ -3865,7 +3865,7 @@
         <v>6</v>
       </c>
       <c r="E95" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G95" t="str">
         <f t="shared" si="1"/>
@@ -3889,14 +3889,14 @@
         <v>6</v>
       </c>
       <c r="E96" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G96" t="str">
         <f t="shared" si="1"/>
         <v>is this</v>
       </c>
       <c r="H96" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -3913,7 +3913,7 @@
         <v>6</v>
       </c>
       <c r="E97" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G97" t="str">
         <f t="shared" si="1"/>
@@ -3937,7 +3937,7 @@
         <v>6</v>
       </c>
       <c r="E98" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G98" t="str">
         <f t="shared" si="1"/>
@@ -3961,7 +3961,7 @@
         <v>6</v>
       </c>
       <c r="E99" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G99" t="str">
         <f t="shared" si="1"/>
@@ -3985,7 +3985,7 @@
         <v>6</v>
       </c>
       <c r="E100" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G100" t="str">
         <f t="shared" si="1"/>
@@ -4009,7 +4009,7 @@
         <v>6</v>
       </c>
       <c r="E101" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G101" t="str">
         <f t="shared" si="1"/>
@@ -4033,7 +4033,7 @@
         <v>6</v>
       </c>
       <c r="E102" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G102" t="str">
         <f t="shared" si="1"/>
@@ -4057,7 +4057,7 @@
         <v>6</v>
       </c>
       <c r="E103" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G103" t="str">
         <f t="shared" si="1"/>
@@ -4081,7 +4081,7 @@
         <v>6</v>
       </c>
       <c r="E104" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G104" t="str">
         <f t="shared" si="1"/>
@@ -4105,7 +4105,7 @@
         <v>6</v>
       </c>
       <c r="E105" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G105" t="str">
         <f t="shared" si="1"/>
@@ -4129,7 +4129,7 @@
         <v>6</v>
       </c>
       <c r="E106" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G106" t="str">
         <f t="shared" si="1"/>
@@ -4153,7 +4153,7 @@
         <v>6</v>
       </c>
       <c r="E107" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G107" t="str">
         <f t="shared" si="1"/>
@@ -4177,7 +4177,7 @@
         <v>6</v>
       </c>
       <c r="E108" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G108" t="str">
         <f t="shared" si="1"/>
@@ -4201,7 +4201,7 @@
         <v>6</v>
       </c>
       <c r="E109" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G109" t="str">
         <f t="shared" si="1"/>
@@ -4225,7 +4225,7 @@
         <v>6</v>
       </c>
       <c r="E110" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G110" t="str">
         <f t="shared" si="1"/>
@@ -4249,7 +4249,7 @@
         <v>6</v>
       </c>
       <c r="E111" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G111" t="str">
         <f t="shared" si="1"/>
@@ -4273,7 +4273,7 @@
         <v>6</v>
       </c>
       <c r="E112" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G112" t="str">
         <f t="shared" si="1"/>
@@ -4297,7 +4297,7 @@
         <v>6</v>
       </c>
       <c r="E113" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G113" t="str">
         <f t="shared" si="1"/>
@@ -4321,7 +4321,7 @@
         <v>6</v>
       </c>
       <c r="E114" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G114" t="str">
         <f t="shared" si="1"/>
@@ -4345,7 +4345,7 @@
         <v>6</v>
       </c>
       <c r="E115" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G115" t="str">
         <f t="shared" si="1"/>
@@ -4369,7 +4369,7 @@
         <v>6</v>
       </c>
       <c r="E116" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G116" t="str">
         <f t="shared" si="1"/>
@@ -4393,7 +4393,7 @@
         <v>6</v>
       </c>
       <c r="E117" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G117" t="str">
         <f t="shared" si="1"/>
@@ -4417,7 +4417,7 @@
         <v>6</v>
       </c>
       <c r="E118" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G118" t="str">
         <f t="shared" si="1"/>
@@ -4441,7 +4441,7 @@
         <v>6</v>
       </c>
       <c r="E119" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G119" t="str">
         <f t="shared" si="1"/>
@@ -4465,7 +4465,7 @@
         <v>6</v>
       </c>
       <c r="E120" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G120" t="str">
         <f t="shared" si="1"/>
@@ -4489,7 +4489,7 @@
         <v>6</v>
       </c>
       <c r="E121" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G121" t="str">
         <f t="shared" si="1"/>
@@ -4513,7 +4513,7 @@
         <v>6</v>
       </c>
       <c r="E122" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G122" t="str">
         <f t="shared" si="1"/>
@@ -4537,7 +4537,7 @@
         <v>6</v>
       </c>
       <c r="E123" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G123" t="str">
         <f t="shared" si="1"/>
@@ -4561,7 +4561,7 @@
         <v>6</v>
       </c>
       <c r="E124" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G124" t="str">
         <f t="shared" si="1"/>
@@ -4585,7 +4585,7 @@
         <v>6</v>
       </c>
       <c r="E125" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G125" t="str">
         <f t="shared" si="1"/>
@@ -4609,7 +4609,7 @@
         <v>6</v>
       </c>
       <c r="E126" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G126" t="str">
         <f t="shared" si="1"/>
@@ -4633,7 +4633,7 @@
         <v>6</v>
       </c>
       <c r="E127" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G127" t="str">
         <f t="shared" si="1"/>
@@ -4657,7 +4657,7 @@
         <v>6</v>
       </c>
       <c r="E128" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G128" t="str">
         <f t="shared" si="1"/>
@@ -4681,7 +4681,7 @@
         <v>6</v>
       </c>
       <c r="E129" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G129" t="str">
         <f t="shared" si="1"/>
@@ -4705,7 +4705,7 @@
         <v>6</v>
       </c>
       <c r="E130" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G130" t="str">
         <f t="shared" si="1"/>
@@ -4729,7 +4729,7 @@
         <v>6</v>
       </c>
       <c r="E131" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G131" t="str">
         <f t="shared" ref="G131" si="2">IF(E131="sing", "is this","are these")</f>
@@ -4753,10 +4753,10 @@
         <v>265</v>
       </c>
       <c r="E132" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F132" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G132" t="str">
         <f>IF(E132="sing", "is deze","zijn deze")</f>
@@ -4780,17 +4780,17 @@
         <v>265</v>
       </c>
       <c r="E133" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F133" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G133" t="str">
         <f t="shared" ref="G133:G195" si="3">IF(E133="sing", "is deze","zijn deze")</f>
         <v>is deze</v>
       </c>
       <c r="H133" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
@@ -4807,10 +4807,10 @@
         <v>265</v>
       </c>
       <c r="E134" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F134" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G134" t="str">
         <f t="shared" si="3"/>
@@ -4834,17 +4834,17 @@
         <v>265</v>
       </c>
       <c r="E135" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F135" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G135" t="str">
         <f t="shared" si="3"/>
         <v>is deze</v>
       </c>
       <c r="H135" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
@@ -4861,16 +4861,16 @@
         <v>265</v>
       </c>
       <c r="E136" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F136" t="s">
+        <v>372</v>
+      </c>
+      <c r="G136" t="s">
+        <v>374</v>
+      </c>
+      <c r="H136" t="s">
         <v>373</v>
-      </c>
-      <c r="G136" t="s">
-        <v>375</v>
-      </c>
-      <c r="H136" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
@@ -4887,10 +4887,10 @@
         <v>265</v>
       </c>
       <c r="E137" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F137" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G137" t="str">
         <f t="shared" si="3"/>
@@ -4914,13 +4914,13 @@
         <v>265</v>
       </c>
       <c r="E138" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F138" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G138" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H138" t="s">
         <v>269</v>
@@ -4940,16 +4940,16 @@
         <v>265</v>
       </c>
       <c r="E139" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F139" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G139" t="s">
+        <v>374</v>
+      </c>
+      <c r="H139" t="s">
         <v>375</v>
-      </c>
-      <c r="H139" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
@@ -4966,17 +4966,17 @@
         <v>265</v>
       </c>
       <c r="E140" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F140" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G140" t="str">
         <f t="shared" si="3"/>
         <v>is deze</v>
       </c>
       <c r="H140" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
@@ -4993,10 +4993,10 @@
         <v>265</v>
       </c>
       <c r="E141" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F141" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G141" t="str">
         <f t="shared" si="3"/>
@@ -5020,17 +5020,17 @@
         <v>265</v>
       </c>
       <c r="E142" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F142" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G142" t="str">
         <f t="shared" si="3"/>
         <v>is deze</v>
       </c>
       <c r="H142" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
@@ -5047,10 +5047,10 @@
         <v>265</v>
       </c>
       <c r="E143" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F143" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G143" t="str">
         <f t="shared" si="3"/>
@@ -5074,10 +5074,10 @@
         <v>265</v>
       </c>
       <c r="E144" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F144" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G144" t="str">
         <f t="shared" si="3"/>
@@ -5101,10 +5101,10 @@
         <v>265</v>
       </c>
       <c r="E145" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F145" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G145" t="str">
         <f t="shared" si="3"/>
@@ -5128,10 +5128,10 @@
         <v>265</v>
       </c>
       <c r="E146" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F146" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G146" t="str">
         <f t="shared" si="3"/>
@@ -5155,10 +5155,10 @@
         <v>265</v>
       </c>
       <c r="E147" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F147" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G147" t="str">
         <f t="shared" si="3"/>
@@ -5182,10 +5182,10 @@
         <v>265</v>
       </c>
       <c r="E148" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F148" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G148" t="str">
         <f t="shared" si="3"/>
@@ -5209,10 +5209,10 @@
         <v>265</v>
       </c>
       <c r="E149" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F149" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G149" t="str">
         <f t="shared" si="3"/>
@@ -5236,10 +5236,10 @@
         <v>265</v>
       </c>
       <c r="E150" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F150" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G150" t="str">
         <f t="shared" si="3"/>
@@ -5263,17 +5263,17 @@
         <v>265</v>
       </c>
       <c r="E151" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F151" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G151" t="str">
         <f t="shared" si="3"/>
         <v>is deze</v>
       </c>
       <c r="H151" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
@@ -5290,10 +5290,10 @@
         <v>265</v>
       </c>
       <c r="E152" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F152" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G152" t="str">
         <f t="shared" si="3"/>
@@ -5317,13 +5317,13 @@
         <v>265</v>
       </c>
       <c r="E153" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F153" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G153" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H153" t="s">
         <v>280</v>
@@ -5343,10 +5343,10 @@
         <v>265</v>
       </c>
       <c r="E154" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F154" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G154" t="str">
         <f t="shared" si="3"/>
@@ -5370,17 +5370,17 @@
         <v>265</v>
       </c>
       <c r="E155" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F155" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G155" t="str">
         <f t="shared" si="3"/>
         <v>is deze</v>
       </c>
       <c r="H155" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
@@ -5397,10 +5397,10 @@
         <v>265</v>
       </c>
       <c r="E156" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F156" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G156" t="str">
         <f t="shared" si="3"/>
@@ -5424,13 +5424,13 @@
         <v>265</v>
       </c>
       <c r="E157" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F157" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G157" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H157" t="s">
         <v>283</v>
@@ -5450,13 +5450,13 @@
         <v>265</v>
       </c>
       <c r="E158" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F158" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G158" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H158" t="s">
         <v>284</v>
@@ -5476,13 +5476,13 @@
         <v>265</v>
       </c>
       <c r="E159" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F159" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G159" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H159" t="s">
         <v>285</v>
@@ -5502,13 +5502,13 @@
         <v>265</v>
       </c>
       <c r="E160" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F160" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G160" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H160" t="s">
         <v>286</v>
@@ -5528,10 +5528,10 @@
         <v>265</v>
       </c>
       <c r="E161" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F161" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G161" t="str">
         <f t="shared" si="3"/>
@@ -5555,10 +5555,10 @@
         <v>265</v>
       </c>
       <c r="E162" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F162" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G162" t="str">
         <f t="shared" si="3"/>
@@ -5582,13 +5582,13 @@
         <v>265</v>
       </c>
       <c r="E163" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F163" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G163" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H163" t="s">
         <v>289</v>
@@ -5608,16 +5608,16 @@
         <v>265</v>
       </c>
       <c r="E164" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F164" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G164" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H164" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
@@ -5634,10 +5634,10 @@
         <v>265</v>
       </c>
       <c r="E165" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F165" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G165" t="str">
         <f t="shared" si="3"/>
@@ -5661,13 +5661,13 @@
         <v>265</v>
       </c>
       <c r="E166" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F166" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G166" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H166" t="s">
         <v>291</v>
@@ -5687,13 +5687,13 @@
         <v>265</v>
       </c>
       <c r="E167" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F167" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G167" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H167" t="s">
         <v>292</v>
@@ -5713,10 +5713,10 @@
         <v>265</v>
       </c>
       <c r="E168" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F168" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G168" t="str">
         <f t="shared" si="3"/>
@@ -5740,10 +5740,10 @@
         <v>265</v>
       </c>
       <c r="E169" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F169" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G169" t="str">
         <f t="shared" si="3"/>
@@ -5767,10 +5767,10 @@
         <v>265</v>
       </c>
       <c r="E170" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F170" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G170" t="str">
         <f t="shared" si="3"/>
@@ -5794,10 +5794,10 @@
         <v>265</v>
       </c>
       <c r="E171" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F171" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G171" t="str">
         <f t="shared" si="3"/>
@@ -5821,10 +5821,10 @@
         <v>265</v>
       </c>
       <c r="E172" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F172" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G172" t="str">
         <f t="shared" si="3"/>
@@ -5848,17 +5848,17 @@
         <v>265</v>
       </c>
       <c r="E173" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F173" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G173" t="str">
         <f t="shared" si="3"/>
         <v>is deze</v>
       </c>
       <c r="H173" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
@@ -5875,10 +5875,10 @@
         <v>265</v>
       </c>
       <c r="E174" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F174" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G174" t="str">
         <f t="shared" si="3"/>
@@ -5902,10 +5902,10 @@
         <v>265</v>
       </c>
       <c r="E175" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F175" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G175" t="str">
         <f t="shared" si="3"/>
@@ -5929,13 +5929,13 @@
         <v>265</v>
       </c>
       <c r="E176" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F176" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G176" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H176" t="s">
         <v>300</v>
@@ -5955,13 +5955,13 @@
         <v>265</v>
       </c>
       <c r="E177" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F177" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G177" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H177" t="s">
         <v>301</v>
@@ -5981,10 +5981,10 @@
         <v>265</v>
       </c>
       <c r="E178" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F178" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G178" t="str">
         <f t="shared" si="3"/>
@@ -6008,13 +6008,13 @@
         <v>265</v>
       </c>
       <c r="E179" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F179" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G179" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H179" t="s">
         <v>303</v>
@@ -6034,17 +6034,17 @@
         <v>265</v>
       </c>
       <c r="E180" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F180" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G180" t="str">
         <f t="shared" si="3"/>
         <v>is deze</v>
       </c>
       <c r="H180" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
@@ -6061,17 +6061,17 @@
         <v>265</v>
       </c>
       <c r="E181" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F181" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G181" t="str">
         <f t="shared" si="3"/>
-        <v>zijn deze</v>
+        <v>is deze</v>
       </c>
       <c r="H181" t="s">
-        <v>304</v>
+        <v>403</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
@@ -6088,17 +6088,17 @@
         <v>265</v>
       </c>
       <c r="E182" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F182" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G182" t="str">
         <f t="shared" si="3"/>
         <v>zijn deze</v>
       </c>
       <c r="H182" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
@@ -6115,17 +6115,17 @@
         <v>265</v>
       </c>
       <c r="E183" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F183" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G183" t="str">
         <f t="shared" si="3"/>
         <v>is deze</v>
       </c>
       <c r="H183" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
@@ -6142,16 +6142,16 @@
         <v>265</v>
       </c>
       <c r="E184" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F184" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G184" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H184" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
@@ -6168,16 +6168,16 @@
         <v>265</v>
       </c>
       <c r="E185" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F185" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G185" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H185" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
@@ -6194,17 +6194,17 @@
         <v>265</v>
       </c>
       <c r="E186" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F186" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G186" t="str">
         <f t="shared" si="3"/>
         <v>is deze</v>
       </c>
       <c r="H186" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
@@ -6221,16 +6221,16 @@
         <v>265</v>
       </c>
       <c r="E187" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F187" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G187" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H187" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
@@ -6247,17 +6247,17 @@
         <v>265</v>
       </c>
       <c r="E188" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F188" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G188" t="str">
         <f t="shared" si="3"/>
         <v>is deze</v>
       </c>
       <c r="H188" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
@@ -6274,16 +6274,16 @@
         <v>265</v>
       </c>
       <c r="E189" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F189" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G189" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H189" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
@@ -6300,17 +6300,17 @@
         <v>265</v>
       </c>
       <c r="E190" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F190" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G190" t="str">
         <f t="shared" si="3"/>
         <v>is deze</v>
       </c>
       <c r="H190" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
@@ -6327,17 +6327,17 @@
         <v>265</v>
       </c>
       <c r="E191" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F191" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G191" t="str">
         <f t="shared" si="3"/>
         <v>is deze</v>
       </c>
       <c r="H191" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
@@ -6354,17 +6354,17 @@
         <v>265</v>
       </c>
       <c r="E192" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F192" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G192" t="str">
         <f t="shared" si="3"/>
         <v>is deze</v>
       </c>
       <c r="H192" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
@@ -6381,17 +6381,17 @@
         <v>265</v>
       </c>
       <c r="E193" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F193" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G193" t="str">
         <f t="shared" si="3"/>
         <v>is deze</v>
       </c>
       <c r="H193" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
@@ -6408,17 +6408,17 @@
         <v>265</v>
       </c>
       <c r="E194" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F194" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G194" t="str">
         <f t="shared" si="3"/>
         <v>is deze</v>
       </c>
       <c r="H194" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
@@ -6435,17 +6435,17 @@
         <v>265</v>
       </c>
       <c r="E195" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F195" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G195" t="str">
         <f t="shared" si="3"/>
         <v>zijn deze</v>
       </c>
       <c r="H195" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
@@ -6462,16 +6462,16 @@
         <v>265</v>
       </c>
       <c r="E196" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F196" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G196" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H196" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
@@ -6488,17 +6488,17 @@
         <v>265</v>
       </c>
       <c r="E197" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F197" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G197" t="str">
         <f t="shared" ref="G197:G229" si="4">IF(E197="sing", "is deze","zijn deze")</f>
         <v>is deze</v>
       </c>
       <c r="H197" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
@@ -6515,17 +6515,17 @@
         <v>265</v>
       </c>
       <c r="E198" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F198" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G198" t="str">
         <f t="shared" si="4"/>
         <v>is deze</v>
       </c>
       <c r="H198" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
@@ -6542,17 +6542,17 @@
         <v>265</v>
       </c>
       <c r="E199" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F199" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G199" t="str">
         <f t="shared" si="4"/>
         <v>is deze</v>
       </c>
       <c r="H199" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
@@ -6569,17 +6569,17 @@
         <v>265</v>
       </c>
       <c r="E200" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F200" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G200" t="str">
         <f t="shared" si="4"/>
         <v>is deze</v>
       </c>
       <c r="H200" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
@@ -6596,17 +6596,17 @@
         <v>265</v>
       </c>
       <c r="E201" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F201" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G201" t="str">
         <f t="shared" si="4"/>
         <v>is deze</v>
       </c>
       <c r="H201" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
@@ -6623,17 +6623,17 @@
         <v>265</v>
       </c>
       <c r="E202" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F202" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G202" t="str">
         <f t="shared" si="4"/>
         <v>is deze</v>
       </c>
       <c r="H202" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
@@ -6650,17 +6650,17 @@
         <v>265</v>
       </c>
       <c r="E203" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F203" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G203" t="str">
         <f t="shared" si="4"/>
         <v>is deze</v>
       </c>
       <c r="H203" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
@@ -6677,17 +6677,17 @@
         <v>265</v>
       </c>
       <c r="E204" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F204" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G204" t="str">
         <f t="shared" si="4"/>
         <v>is deze</v>
       </c>
       <c r="H204" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
@@ -6704,16 +6704,16 @@
         <v>265</v>
       </c>
       <c r="E205" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F205" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G205" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H205" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
@@ -6730,17 +6730,17 @@
         <v>265</v>
       </c>
       <c r="E206" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F206" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G206" t="str">
         <f t="shared" si="4"/>
         <v>zijn deze</v>
       </c>
       <c r="H206" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
@@ -6757,17 +6757,17 @@
         <v>265</v>
       </c>
       <c r="E207" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F207" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G207" t="str">
         <f t="shared" si="4"/>
         <v>is deze</v>
       </c>
       <c r="H207" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
@@ -6784,17 +6784,17 @@
         <v>265</v>
       </c>
       <c r="E208" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F208" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G208" t="str">
         <f t="shared" si="4"/>
         <v>zijn deze</v>
       </c>
       <c r="H208" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
@@ -6811,17 +6811,17 @@
         <v>265</v>
       </c>
       <c r="E209" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F209" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G209" t="str">
         <f t="shared" si="4"/>
         <v>zijn deze</v>
       </c>
       <c r="H209" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
@@ -6838,17 +6838,17 @@
         <v>265</v>
       </c>
       <c r="E210" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F210" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G210" t="str">
         <f t="shared" si="4"/>
         <v>is deze</v>
       </c>
       <c r="H210" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
@@ -6865,17 +6865,17 @@
         <v>265</v>
       </c>
       <c r="E211" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F211" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G211" t="str">
         <f t="shared" si="4"/>
         <v>is deze</v>
       </c>
       <c r="H211" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
@@ -6892,17 +6892,17 @@
         <v>265</v>
       </c>
       <c r="E212" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F212" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G212" t="str">
         <f t="shared" si="4"/>
         <v>is deze</v>
       </c>
       <c r="H212" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
@@ -6919,17 +6919,17 @@
         <v>265</v>
       </c>
       <c r="E213" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F213" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G213" t="str">
         <f t="shared" si="4"/>
         <v>is deze</v>
       </c>
       <c r="H213" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
@@ -6946,17 +6946,17 @@
         <v>265</v>
       </c>
       <c r="E214" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F214" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G214" t="str">
         <f t="shared" si="4"/>
         <v>is deze</v>
       </c>
       <c r="H214" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
@@ -6973,17 +6973,17 @@
         <v>265</v>
       </c>
       <c r="E215" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F215" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G215" t="str">
         <f t="shared" si="4"/>
         <v>is deze</v>
       </c>
       <c r="H215" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
@@ -7000,17 +7000,17 @@
         <v>265</v>
       </c>
       <c r="E216" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F216" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G216" t="str">
         <f t="shared" si="4"/>
         <v>is deze</v>
       </c>
       <c r="H216" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
@@ -7027,17 +7027,17 @@
         <v>265</v>
       </c>
       <c r="E217" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F217" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G217" t="str">
         <f t="shared" si="4"/>
         <v>is deze</v>
       </c>
       <c r="H217" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
@@ -7054,17 +7054,17 @@
         <v>265</v>
       </c>
       <c r="E218" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F218" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G218" t="str">
         <f t="shared" si="4"/>
         <v>is deze</v>
       </c>
       <c r="H218" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
@@ -7081,17 +7081,17 @@
         <v>265</v>
       </c>
       <c r="E219" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F219" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G219" t="str">
         <f t="shared" si="4"/>
         <v>is deze</v>
       </c>
       <c r="H219" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
@@ -7108,16 +7108,16 @@
         <v>265</v>
       </c>
       <c r="E220" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F220" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G220" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H220" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
@@ -7134,17 +7134,17 @@
         <v>265</v>
       </c>
       <c r="E221" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F221" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G221" t="str">
         <f t="shared" si="4"/>
         <v>is deze</v>
       </c>
       <c r="H221" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
@@ -7161,17 +7161,17 @@
         <v>265</v>
       </c>
       <c r="E222" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F222" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G222" t="str">
         <f t="shared" si="4"/>
         <v>is deze</v>
       </c>
       <c r="H222" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
@@ -7188,17 +7188,17 @@
         <v>265</v>
       </c>
       <c r="E223" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F223" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G223" t="str">
         <f t="shared" si="4"/>
         <v>is deze</v>
       </c>
       <c r="H223" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
@@ -7215,17 +7215,17 @@
         <v>265</v>
       </c>
       <c r="E224" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F224" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G224" t="str">
         <f t="shared" si="4"/>
         <v>is deze</v>
       </c>
       <c r="H224" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
@@ -7242,17 +7242,17 @@
         <v>265</v>
       </c>
       <c r="E225" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F225" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G225" t="str">
         <f t="shared" si="4"/>
         <v>is deze</v>
       </c>
       <c r="H225" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
@@ -7269,17 +7269,17 @@
         <v>265</v>
       </c>
       <c r="E226" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F226" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G226" t="str">
         <f t="shared" si="4"/>
         <v>is deze</v>
       </c>
       <c r="H226" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
@@ -7296,16 +7296,16 @@
         <v>265</v>
       </c>
       <c r="E227" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F227" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G227" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H227" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
@@ -7322,17 +7322,17 @@
         <v>265</v>
       </c>
       <c r="E228" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F228" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G228" t="str">
         <f t="shared" si="4"/>
         <v>is deze</v>
       </c>
       <c r="H228" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
@@ -7349,17 +7349,17 @@
         <v>265</v>
       </c>
       <c r="E229" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F229" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G229" t="str">
         <f t="shared" si="4"/>
         <v>is deze</v>
       </c>
       <c r="H229" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
@@ -7376,17 +7376,17 @@
         <v>265</v>
       </c>
       <c r="E230" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F230" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G230" t="str">
         <f t="shared" ref="G230" si="5">IF(E230="sing", "is deze","zijn deze")</f>
         <v>is deze</v>
       </c>
       <c r="H230" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
@@ -7403,17 +7403,17 @@
         <v>265</v>
       </c>
       <c r="E231" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F231" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G231" t="str">
         <f>IF(E231="sing", "is deze","zijn deze")</f>
         <v>is deze</v>
       </c>
       <c r="H231" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
@@ -7430,17 +7430,17 @@
         <v>265</v>
       </c>
       <c r="E232" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F232" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G232" t="str">
         <f>IF(E232="sing", "is deze","zijn deze")</f>
         <v>is deze</v>
       </c>
       <c r="H232" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
@@ -7457,17 +7457,17 @@
         <v>265</v>
       </c>
       <c r="E233" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F233" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G233" t="str">
         <f>IF(E233="sing", "is deze","zijn deze")</f>
         <v>is deze</v>
       </c>
       <c r="H233" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
@@ -7484,17 +7484,17 @@
         <v>265</v>
       </c>
       <c r="E234" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F234" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G234" t="str">
         <f>IF(E234="sing", "is deze","zijn deze")</f>
         <v>is deze</v>
       </c>
       <c r="H234" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
@@ -7511,10 +7511,10 @@
         <v>265</v>
       </c>
       <c r="E235" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F235" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G235" t="str">
         <f>IF(E235="sing", "is deze","zijn deze")</f>
@@ -7538,16 +7538,16 @@
         <v>265</v>
       </c>
       <c r="E236" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F236" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G236" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H236" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
@@ -7564,17 +7564,17 @@
         <v>265</v>
       </c>
       <c r="E237" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F237" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G237" t="str">
         <f>IF(E237="sing", "is deze","zijn deze")</f>
         <v>zijn deze</v>
       </c>
       <c r="H237" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
@@ -7591,17 +7591,17 @@
         <v>265</v>
       </c>
       <c r="E238" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F238" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G238" t="str">
         <f>IF(E238="sing", "is deze","zijn deze")</f>
         <v>is deze</v>
       </c>
       <c r="H238" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
@@ -7618,16 +7618,16 @@
         <v>265</v>
       </c>
       <c r="E239" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F239" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G239" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H239" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
@@ -7644,17 +7644,17 @@
         <v>265</v>
       </c>
       <c r="E240" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F240" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G240" t="str">
         <f>IF(E240="sing", "is deze","zijn deze")</f>
         <v>zijn deze</v>
       </c>
       <c r="H240" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
@@ -7671,17 +7671,17 @@
         <v>265</v>
       </c>
       <c r="E241" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F241" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G241" t="str">
         <f>IF(E241="sing", "is deze","zijn deze")</f>
         <v>is deze</v>
       </c>
       <c r="H241" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
@@ -7698,17 +7698,17 @@
         <v>265</v>
       </c>
       <c r="E242" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F242" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G242" t="str">
         <f>IF(E242="sing", "is deze","zijn deze")</f>
         <v>zijn deze</v>
       </c>
       <c r="H242" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
@@ -7725,16 +7725,16 @@
         <v>265</v>
       </c>
       <c r="E243" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F243" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G243" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H243" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
@@ -7751,16 +7751,16 @@
         <v>265</v>
       </c>
       <c r="E244" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F244" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G244" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H244" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
@@ -7777,10 +7777,10 @@
         <v>265</v>
       </c>
       <c r="E245" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F245" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G245" t="str">
         <f t="shared" ref="G245:G254" si="6">IF(E245="sing", "is deze","zijn deze")</f>
@@ -7804,17 +7804,17 @@
         <v>265</v>
       </c>
       <c r="E246" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F246" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G246" t="str">
         <f t="shared" si="6"/>
         <v>is deze</v>
       </c>
       <c r="H246" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
@@ -7831,17 +7831,17 @@
         <v>265</v>
       </c>
       <c r="E247" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F247" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G247" t="str">
         <f t="shared" si="6"/>
         <v>is deze</v>
       </c>
       <c r="H247" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
@@ -7858,17 +7858,17 @@
         <v>265</v>
       </c>
       <c r="E248" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F248" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G248" t="str">
         <f t="shared" si="6"/>
         <v>is deze</v>
       </c>
       <c r="H248" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
@@ -7885,17 +7885,17 @@
         <v>265</v>
       </c>
       <c r="E249" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F249" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G249" t="str">
         <f t="shared" si="6"/>
         <v>is deze</v>
       </c>
       <c r="H249" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
@@ -7912,17 +7912,17 @@
         <v>265</v>
       </c>
       <c r="E250" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F250" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G250" t="str">
         <f t="shared" si="6"/>
         <v>is deze</v>
       </c>
       <c r="H250" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
@@ -7939,17 +7939,17 @@
         <v>265</v>
       </c>
       <c r="E251" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F251" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G251" t="str">
         <f t="shared" si="6"/>
         <v>is deze</v>
       </c>
       <c r="H251" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
@@ -7966,17 +7966,17 @@
         <v>265</v>
       </c>
       <c r="E252" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F252" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G252" t="str">
         <f t="shared" si="6"/>
         <v>is deze</v>
       </c>
       <c r="H252" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
@@ -7993,17 +7993,17 @@
         <v>265</v>
       </c>
       <c r="E253" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F253" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G253" t="str">
         <f t="shared" si="6"/>
         <v>is deze</v>
       </c>
       <c r="H253" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
@@ -8020,17 +8020,17 @@
         <v>265</v>
       </c>
       <c r="E254" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F254" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G254" t="str">
         <f t="shared" si="6"/>
         <v>is deze</v>
       </c>
       <c r="H254" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
@@ -8047,16 +8047,16 @@
         <v>265</v>
       </c>
       <c r="E255" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F255" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G255" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H255" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
@@ -8073,17 +8073,17 @@
         <v>265</v>
       </c>
       <c r="E256" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F256" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G256" t="str">
         <f t="shared" ref="G256:G261" si="7">IF(E256="sing", "is deze","zijn deze")</f>
         <v>is deze</v>
       </c>
       <c r="H256" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
@@ -8100,17 +8100,17 @@
         <v>265</v>
       </c>
       <c r="E257" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F257" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G257" t="str">
         <f t="shared" si="7"/>
         <v>is deze</v>
       </c>
       <c r="H257" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
@@ -8127,10 +8127,10 @@
         <v>265</v>
       </c>
       <c r="E258" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F258" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G258" t="str">
         <f t="shared" si="7"/>
@@ -8154,17 +8154,17 @@
         <v>265</v>
       </c>
       <c r="E259" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F259" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G259" t="str">
         <f t="shared" si="7"/>
         <v>is deze</v>
       </c>
       <c r="H259" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
@@ -8181,17 +8181,17 @@
         <v>265</v>
       </c>
       <c r="E260" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F260" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G260" t="str">
         <f t="shared" si="7"/>
         <v>is deze</v>
       </c>
       <c r="H260" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
@@ -8208,17 +8208,17 @@
         <v>265</v>
       </c>
       <c r="E261" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F261" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G261" t="str">
         <f t="shared" si="7"/>
         <v>is deze</v>
       </c>
       <c r="H261" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
